--- a/系统测试用例.xlsx
+++ b/系统测试用例.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="10410" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="10410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="503">
   <si>
     <t>进行首次安装、升级、完整的或自定义的安装，系统能够正常进行安装</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1252,9 +1252,6 @@
   <si>
     <t>界面测试</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力测试</t>
   </si>
   <si>
     <t>压力测试</t>
@@ -1602,12 +1599,6 @@
     <t>boxin-testcase-035</t>
   </si>
   <si>
-    <t>boxin-testcase-036</t>
-  </si>
-  <si>
-    <t>boxin-testcase-037</t>
-  </si>
-  <si>
     <t>用户登录</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3120,25 +3111,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>用户提交作业压力测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个并发提交请求</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>系统功能正常</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3193,35 +3165,6 @@
         <family val="1"/>
       </rPr>
       <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秒</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统最长响应时间为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -3806,56 +3749,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Jmeter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试系统在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>并发下的最长响应时间</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>在单线程情况下，对于提交作业这一用例进行</t>
     </r>
     <r>
@@ -4189,39 +4082,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">邀请部分师生使用本系统，并且在一个礼拜的使用过程中要尽可能覆盖一个业务周期所涉及的所有功能
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测量在客户使用本系统时系统的正常运作时间</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>向数据库中插入</t>
     </r>
     <r>
@@ -4391,6 +4251,115 @@
   </si>
   <si>
     <t>不影响系统的功能和稳定性，可能会给用户使用带来困扰（不强制要求重传使得老师可能看不清楚图片）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用体验较好，操作简便</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面简洁，符合主流审美</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxin-testcase-036</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boxin-testcase-037</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录性能测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1000并发下登录花费时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统功能正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在多线程情况下，对于登录操作进行1000并发下的时间，测量系统响应时间的最大值，计算系统响应时的平均值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统最长响应时间为3秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连续运行两周后没有发生系统性故障，发生了一次单个服务故障</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复单个服务故障花费了1小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">邀请部分师生使用本系统，并且在两个礼拜的使用过程中要尽可能覆盖两个业务周期所涉及的所有功能
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测量在客户使用本系统时系统的正常运作时间</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在两个礼拜的测试中，系统的主要功能始终可以使用，单个服务故障后得到了快速的修复，初步估计可以一年中小箱交云作业平台正常运行时间可在99%之上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过多次测试，平均响应时间为500ms左右，最长响应时间为1.5s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过测试，当数据库规模达到10k+级别时，1000并发下响应时间为2.8s，平均每秒响应357.142857143s，符合要求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统平均响应时间为2.4s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统平均响应时间为0.3s，最长响应时间为0.8s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4994,63 +4963,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5087,6 +4999,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -5098,15 +5067,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5116,17 +5076,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5532,80 +5501,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23"/>
-      <c r="B1" s="69" t="s">
-        <v>249</v>
-      </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="B1" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="78" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="F2" s="78"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
-      <c r="B3" s="73" t="s">
-        <v>252</v>
-      </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="79" t="s">
+      <c r="B3" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="80"/>
+      <c r="F3" s="61"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="76"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="80"/>
+      <c r="F4" s="61"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17"/>
-      <c r="B5" s="77">
+      <c r="B5" s="58">
         <v>3</v>
       </c>
-      <c r="C5" s="75"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="79" t="s">
-        <v>253</v>
-      </c>
-      <c r="F5" s="80"/>
+        <v>238</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="61"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
-      <c r="B6" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="B6" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.15">
@@ -5613,10 +5582,10 @@
       <c r="B7" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="68"/>
+      <c r="C7" s="71" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="72"/>
       <c r="E7" s="3" t="s">
         <v>207</v>
       </c>
@@ -5630,10 +5599,10 @@
       <c r="B8" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C8" s="67" t="s">
-        <v>409</v>
-      </c>
-      <c r="D8" s="68"/>
+      <c r="C8" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="D8" s="72"/>
       <c r="E8" s="3" t="s">
         <v>207</v>
       </c>
@@ -5647,8 +5616,8 @@
       <c r="B9" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
       <c r="E9" s="3" t="s">
         <v>207</v>
       </c>
@@ -5659,22 +5628,22 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="59"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="8" t="s">
         <v>165</v>
       </c>
@@ -5689,43 +5658,43 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
-      <c r="B12" s="60">
+      <c r="B12" s="80">
         <v>44180</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="30" t="s">
         <v>166</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F12" s="48" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A13" s="17"/>
-      <c r="B13" s="52" t="s">
-        <v>474</v>
-      </c>
-      <c r="C13" s="53"/>
+      <c r="B13" s="73" t="s">
+        <v>466</v>
+      </c>
+      <c r="C13" s="74"/>
       <c r="D13" s="31" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="31"/>
       <c r="E14" s="49"/>
       <c r="F14" s="32"/>
@@ -5733,8 +5702,8 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
       <c r="D15" s="31"/>
       <c r="E15" s="49"/>
       <c r="F15" s="32"/>
@@ -5742,8 +5711,8 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
       <c r="D16" s="31"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
@@ -5751,8 +5720,8 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
@@ -5760,21 +5729,21 @@
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23"/>
-      <c r="B18" s="55" t="s">
-        <v>238</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="B18" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="54"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="27" t="s">
         <v>212</v>
       </c>
@@ -5790,10 +5759,10 @@
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="C20" s="62"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="9">
         <f>COUNTIF('Test Cases'!C:C,B20)</f>
         <v>28</v>
@@ -5812,17 +5781,17 @@
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="51"/>
+      <c r="B21" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="63"/>
       <c r="D21" s="9">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" s="9">
         <f>SUMPRODUCT(('Test Cases'!C:C=B21)*('Test Cases'!K:K="Y"))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" s="29">
         <f>IF(D21,E21/D21,0)</f>
@@ -5834,10 +5803,10 @@
     </row>
     <row r="22" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="C22" s="51"/>
+      <c r="B22" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="63"/>
       <c r="D22" s="9">
         <f>COUNTIF('Test Cases'!C:C,B22)</f>
         <v>3</v>
@@ -5856,10 +5825,10 @@
     </row>
     <row r="23" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="50" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" s="51"/>
+      <c r="B23" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="63"/>
       <c r="D23" s="9">
         <f>COUNTIF('Test Cases'!C:C,B23)</f>
         <v>2</v>
@@ -5878,10 +5847,10 @@
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
-      <c r="B24" s="50" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" s="51"/>
+      <c r="B24" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="63"/>
       <c r="D24" s="9">
         <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>0</v>
@@ -5900,10 +5869,10 @@
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
-      <c r="B25" s="50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" s="51"/>
+      <c r="B25" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="63"/>
       <c r="D25" s="9">
         <f>COUNTIF('Test Cases'!C:C,B25)</f>
         <v>4</v>
@@ -5922,10 +5891,10 @@
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="9">
         <f>COUNTIF('Test Cases'!C:C,B26)</f>
         <v>1</v>
@@ -5944,30 +5913,30 @@
     </row>
     <row r="27" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
-      <c r="B27" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="C27" s="54"/>
+      <c r="B27" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="70"/>
       <c r="D27" s="9">
         <f>COUNTIF('Test Cases'!C:C,B27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="9">
         <f>SUMPRODUCT(('Test Cases'!C:C=B27)*('Test Cases'!K:K="Y"))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
-      <c r="B28" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="C28" s="54"/>
+      <c r="B28" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="70"/>
       <c r="D28" s="9">
         <f>COUNTIF('Test Cases'!C:C,B28)</f>
         <v>1</v>
@@ -5984,10 +5953,10 @@
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="25"/>
-      <c r="B29" s="50" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="54"/>
+      <c r="B29" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="70"/>
       <c r="D29" s="9">
         <f>SUM(D20:D28)</f>
         <v>43</v>
@@ -6063,23 +6032,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B29:C29"/>
@@ -6096,6 +6048,23 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -6113,8 +6082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP899"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6203,7 +6172,7 @@
         <v>223</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>226</v>
@@ -6215,7 +6184,7 @@
         <v>229</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>159</v>
@@ -6224,7 +6193,7 @@
         <v>168</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="4" t="s">
@@ -6233,37 +6202,37 @@
     </row>
     <row r="5" spans="1:42" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E5" s="38" t="s">
         <v>169</v>
       </c>
       <c r="F5" s="45" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="33" t="s">
@@ -6273,35 +6242,35 @@
     </row>
     <row r="6" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="33" t="s">
@@ -6311,37 +6280,37 @@
     </row>
     <row r="7" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E7" s="38" t="s">
         <v>169</v>
       </c>
       <c r="F7" s="45" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J7" s="45" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7"/>
       <c r="M7" s="33" t="s">
@@ -6352,37 +6321,37 @@
     </row>
     <row r="8" spans="1:42" ht="42" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E8" s="38" t="s">
         <v>169</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="I8" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="I8" s="45" t="s">
-        <v>304</v>
-      </c>
       <c r="J8" s="45" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="33" t="s">
@@ -6393,37 +6362,37 @@
     </row>
     <row r="9" spans="1:42" ht="133.5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J9" s="46" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="33"/>
@@ -6435,37 +6404,37 @@
     </row>
     <row r="10" spans="1:42" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>308</v>
-      </c>
       <c r="E10" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="J10" s="46" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="33"/>
@@ -6477,37 +6446,37 @@
     </row>
     <row r="11" spans="1:42" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I11" s="46" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J11" s="46" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="33"/>
@@ -6518,44 +6487,44 @@
     </row>
     <row r="12" spans="1:42" ht="42" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" s="46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D12" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F12" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="E12" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>325</v>
-      </c>
       <c r="G12" s="44" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="J12" s="46" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M12" s="33"/>
       <c r="N12" s="14" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="AP12" s="6" t="s">
         <v>163</v>
@@ -6563,37 +6532,37 @@
     </row>
     <row r="13" spans="1:42" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I13" s="46" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="J13" s="46" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="33"/>
@@ -6601,37 +6570,37 @@
     </row>
     <row r="14" spans="1:42" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="33"/>
@@ -6639,37 +6608,37 @@
     </row>
     <row r="15" spans="1:42" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D15" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="E15" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>326</v>
-      </c>
       <c r="G15" s="45" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L15" s="7"/>
       <c r="M15" s="33"/>
@@ -6677,37 +6646,37 @@
     </row>
     <row r="16" spans="1:42" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D16" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F16" s="46" t="s">
+      <c r="H16" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I16" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="G16" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>332</v>
-      </c>
       <c r="J16" s="46" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="33"/>
@@ -6715,37 +6684,37 @@
     </row>
     <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="I17" s="46" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J17" s="46" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="33"/>
@@ -6753,37 +6722,37 @@
     </row>
     <row r="18" spans="1:14" ht="57" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D18" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="E18" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="I18" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>346</v>
-      </c>
       <c r="J18" s="46" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="33"/>
@@ -6791,35 +6760,35 @@
     </row>
     <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="46" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L19" s="7"/>
       <c r="M19" s="33"/>
@@ -6827,35 +6796,35 @@
     </row>
     <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D20" s="46" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I20" s="46" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J20" s="46" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="33"/>
@@ -6863,35 +6832,35 @@
     </row>
     <row r="21" spans="1:14" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F21" s="46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J21" s="46" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L21" s="7"/>
       <c r="M21" s="33"/>
@@ -6899,35 +6868,35 @@
     </row>
     <row r="22" spans="1:14" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B22" s="46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D22" s="46" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E22" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F22" s="46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I22" s="46" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J22" s="46" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="33"/>
@@ -6935,35 +6904,35 @@
     </row>
     <row r="23" spans="1:14" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B23" s="46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="I23" s="46" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J23" s="46" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="33"/>
@@ -6971,35 +6940,35 @@
     </row>
     <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B24" s="46" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D24" s="45" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I24" s="46" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J24" s="46" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="33"/>
@@ -7007,35 +6976,35 @@
     </row>
     <row r="25" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="J25" s="46" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L25" s="7"/>
       <c r="M25" s="33"/>
@@ -7043,35 +7012,35 @@
     </row>
     <row r="26" spans="1:14" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D26" s="46" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="I26" s="46" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="J26" s="46" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="33"/>
@@ -7079,35 +7048,35 @@
     </row>
     <row r="27" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="33"/>
@@ -7115,35 +7084,35 @@
     </row>
     <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D28" s="46" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I28" s="46" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J28" s="46" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="33"/>
@@ -7151,35 +7120,35 @@
     </row>
     <row r="29" spans="1:14" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L29" s="7"/>
       <c r="M29" s="33"/>
@@ -7187,35 +7156,35 @@
     </row>
     <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D30" s="46" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I30" s="46" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J30" s="46" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="33"/>
@@ -7223,35 +7192,35 @@
     </row>
     <row r="31" spans="1:14" ht="69" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I31" s="46" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="33"/>
@@ -7259,73 +7228,75 @@
     </row>
     <row r="32" spans="1:14" ht="69" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" s="46" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="46" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="I32" s="46" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J32" s="46" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="M32" s="33"/>
       <c r="N32" s="14" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="46" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I33" s="46" t="s">
-        <v>437</v>
-      </c>
-      <c r="J33" s="46"/>
+        <v>431</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>483</v>
+      </c>
       <c r="K33" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="33"/>
@@ -7333,33 +7304,35 @@
     </row>
     <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="45" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I34" s="46" t="s">
-        <v>439</v>
-      </c>
-      <c r="J34" s="46"/>
+        <v>433</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>484</v>
+      </c>
       <c r="K34" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="33"/>
@@ -7367,69 +7340,71 @@
     </row>
     <row r="35" spans="1:14" ht="55.5" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>286</v>
+        <v>485</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E35" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F35" s="45" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="14" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="I35" s="46" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="33"/>
       <c r="N35" s="7"/>
     </row>
-    <row r="36" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="96" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>287</v>
+        <v>486</v>
       </c>
       <c r="B36" s="46" t="s">
-        <v>406</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>407</v>
+        <v>488</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="D36" s="46" t="s">
+        <v>489</v>
       </c>
       <c r="E36" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F36" s="45" t="s">
-        <v>418</v>
+        <v>490</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>491</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="44" t="s">
-        <v>459</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>420</v>
-      </c>
-      <c r="J36" s="44"/>
+      <c r="H36" s="14" t="s">
+        <v>492</v>
+      </c>
+      <c r="I36" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="J36" s="46" t="s">
+        <v>500</v>
+      </c>
       <c r="K36" s="7" t="s">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="33"/>
@@ -7437,33 +7412,35 @@
     </row>
     <row r="37" spans="1:14" ht="99" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D37" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="B37" s="46" t="s">
-        <v>415</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="D37" s="46" t="s">
-        <v>417</v>
-      </c>
       <c r="E37" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="44" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="I37" s="44" t="s">
-        <v>419</v>
-      </c>
-      <c r="J37" s="44"/>
+        <v>414</v>
+      </c>
+      <c r="J37" s="14" t="s">
+        <v>502</v>
+      </c>
       <c r="K37" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="33"/>
@@ -7471,35 +7448,35 @@
     </row>
     <row r="38" spans="1:14" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>417</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F38" s="46" t="s">
         <v>413</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>418</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="I38" s="46" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J38" s="46" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="33"/>
@@ -7507,35 +7484,35 @@
     </row>
     <row r="39" spans="1:14" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B39" s="46" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D39" s="44" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E39" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="I39" s="46" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J39" s="46" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="33"/>
@@ -7543,35 +7520,35 @@
     </row>
     <row r="40" spans="1:14" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B40" s="46" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E40" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I40" s="46" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="J40" s="46" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="33"/>
@@ -7579,35 +7556,35 @@
     </row>
     <row r="41" spans="1:14" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B41" s="46" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E41" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="I41" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="I41" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="L41" s="7"/>
       <c r="M41" s="33"/>
@@ -7615,35 +7592,35 @@
     </row>
     <row r="42" spans="1:14" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B42" s="46" t="s">
         <v>203</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="E42" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F42" s="46" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>418</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="I42" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="J42" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>473</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="33"/>
@@ -7651,33 +7628,35 @@
     </row>
     <row r="43" spans="1:14" ht="99" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>435</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="B43" s="46" t="s">
-        <v>441</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="45" t="s">
         <v>440</v>
-      </c>
-      <c r="D43" s="46" t="s">
-        <v>442</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F43" s="45" t="s">
-        <v>446</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="J43" s="44"/>
+        <v>437</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>494</v>
+      </c>
       <c r="K43" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="33"/>
@@ -7685,67 +7664,71 @@
     </row>
     <row r="44" spans="1:14" ht="141" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C44" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D44" s="46" t="s">
+        <v>436</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="F44" s="46" t="s">
         <v>440</v>
-      </c>
-      <c r="D44" s="46" t="s">
-        <v>442</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>292</v>
-      </c>
-      <c r="F44" s="46" t="s">
-        <v>446</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>445</v>
-      </c>
-      <c r="J44" s="44"/>
+        <v>439</v>
+      </c>
+      <c r="J44" s="14" t="s">
+        <v>495</v>
+      </c>
       <c r="K44" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="33"/>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="136.5" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="E45" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="7" t="s">
-        <v>468</v>
+        <v>496</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="J45" s="44"/>
+        <v>442</v>
+      </c>
+      <c r="J45" s="14" t="s">
+        <v>497</v>
+      </c>
       <c r="K45" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="33"/>
@@ -7753,67 +7736,71 @@
     </row>
     <row r="46" spans="1:14" ht="117" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B46" s="46" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D46" s="46" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F46" s="46" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>453</v>
-      </c>
-      <c r="J46" s="44"/>
+        <v>447</v>
+      </c>
+      <c r="J46" s="14" t="s">
+        <v>498</v>
+      </c>
       <c r="K46" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="33"/>
       <c r="N46" s="7"/>
     </row>
-    <row r="47" spans="1:14" ht="103.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="109.5" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E47" s="38" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I47" s="44" t="s">
-        <v>456</v>
-      </c>
-      <c r="J47" s="44"/>
+        <v>450</v>
+      </c>
+      <c r="J47" s="14" t="s">
+        <v>499</v>
+      </c>
       <c r="K47" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="33"/>
@@ -12117,7 +12104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
@@ -12131,14 +12118,14 @@
   <sheetData>
     <row r="1" spans="1:2" ht="270" x14ac:dyDescent="0.15">
       <c r="B1" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="86" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="86"/>
+      <c r="A3" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" s="93"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="40" t="s">
@@ -12175,19 +12162,19 @@
       <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="87" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="85"/>
+      <c r="B10" s="87"/>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="84"/>
+      <c r="B11" s="90"/>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="90" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -12195,85 +12182,85 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="84"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="84"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="84"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="84"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="84"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="84"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="84"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="84"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="84"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="84"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="84"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="84"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="84" t="s">
+      <c r="A25" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="90"/>
     </row>
     <row r="26" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="90" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -12281,61 +12268,61 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="84"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="84"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="84"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="84"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="84"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="84"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="84"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="84"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="84" t="s">
+      <c r="A35" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="84"/>
+      <c r="B35" s="90"/>
     </row>
     <row r="36" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="87" t="s">
+      <c r="A36" s="84" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -12343,25 +12330,25 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="88"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="89"/>
+      <c r="A38" s="86"/>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="84" t="s">
+      <c r="A39" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="84"/>
+      <c r="B39" s="90"/>
     </row>
     <row r="40" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="84" t="s">
+      <c r="A40" s="90" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -12369,28 +12356,28 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="84"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A42" s="84"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="84"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="84" t="s">
+      <c r="A44" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="84"/>
+      <c r="B44" s="90"/>
     </row>
     <row r="45" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
@@ -12401,13 +12388,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="84" t="s">
+      <c r="A46" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="84"/>
+      <c r="B46" s="90"/>
     </row>
     <row r="47" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="84" t="s">
+      <c r="A47" s="90" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -12415,37 +12402,37 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="84"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="84"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="84"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="84"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="84" t="s">
+      <c r="A52" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="84"/>
+      <c r="B52" s="90"/>
     </row>
     <row r="53" spans="1:2" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="84" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -12453,37 +12440,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="88"/>
+      <c r="A54" s="85"/>
       <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="88"/>
+      <c r="A55" s="85"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="88"/>
+      <c r="A56" s="85"/>
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="89"/>
+      <c r="A57" s="86"/>
       <c r="B57" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="84"/>
+      <c r="B58" s="90"/>
     </row>
     <row r="59" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="87" t="s">
+      <c r="A59" s="84" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -12491,25 +12478,25 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="88"/>
+      <c r="A60" s="85"/>
       <c r="B60" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="89"/>
+      <c r="A61" s="86"/>
       <c r="B61" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="84" t="s">
+      <c r="A62" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="84"/>
+      <c r="B62" s="90"/>
     </row>
     <row r="63" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="84" t="s">
+      <c r="A63" s="90" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -12517,31 +12504,31 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A64" s="84"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="84"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="84"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="84" t="s">
+      <c r="A67" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="84"/>
+      <c r="B67" s="90"/>
     </row>
     <row r="68" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="84" t="s">
+      <c r="A68" s="90" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -12549,37 +12536,37 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="84"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="84"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="84"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="84"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="84" t="s">
+      <c r="A73" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="84"/>
+      <c r="B73" s="90"/>
     </row>
     <row r="74" spans="1:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="90" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -12587,16 +12574,16 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="84"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="B77" s="85"/>
+      <c r="B77" s="87"/>
     </row>
     <row r="78" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
@@ -12651,21 +12638,21 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="85" t="s">
+      <c r="A87" s="87" t="s">
         <v>170</v>
       </c>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="87"/>
     </row>
     <row r="88" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="92" t="s">
+      <c r="A88" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="90"/>
-      <c r="C88" s="93"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="92"/>
     </row>
     <row r="89" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="87" t="s">
+      <c r="A89" s="84" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -12676,7 +12663,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="88"/>
+      <c r="A90" s="85"/>
       <c r="B90" s="2" t="s">
         <v>67</v>
       </c>
@@ -12685,7 +12672,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="88"/>
+      <c r="A91" s="85"/>
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
@@ -12694,7 +12681,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="88"/>
+      <c r="A92" s="85"/>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
@@ -12703,7 +12690,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="88"/>
+      <c r="A93" s="85"/>
       <c r="B93" s="2" t="s">
         <v>70</v>
       </c>
@@ -12712,7 +12699,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="88"/>
+      <c r="A94" s="85"/>
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
@@ -12721,7 +12708,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="89"/>
+      <c r="A95" s="86"/>
       <c r="B95" s="2" t="s">
         <v>72</v>
       </c>
@@ -12730,14 +12717,14 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="92" t="s">
+      <c r="A96" s="91" t="s">
         <v>80</v>
       </c>
-      <c r="B96" s="90"/>
-      <c r="C96" s="93"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="92"/>
     </row>
     <row r="97" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="87" t="s">
+      <c r="A97" s="84" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -12748,7 +12735,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="88"/>
+      <c r="A98" s="85"/>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
@@ -12757,7 +12744,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="63.75" x14ac:dyDescent="0.15">
-      <c r="A99" s="89"/>
+      <c r="A99" s="86"/>
       <c r="B99" s="2" t="s">
         <v>75</v>
       </c>
@@ -12766,21 +12753,21 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="85" t="s">
+      <c r="A101" s="87" t="s">
         <v>171</v>
       </c>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="87"/>
     </row>
     <row r="102" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="84" t="s">
+      <c r="A102" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="90"/>
     </row>
     <row r="103" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="91" t="s">
+      <c r="A103" s="88" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -12791,7 +12778,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="91"/>
+      <c r="A104" s="88"/>
       <c r="B104" s="2" t="s">
         <v>115</v>
       </c>
@@ -12800,7 +12787,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="91"/>
+      <c r="A105" s="88"/>
       <c r="B105" s="2" t="s">
         <v>116</v>
       </c>
@@ -12809,7 +12796,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="91"/>
+      <c r="A106" s="88"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
@@ -12818,7 +12805,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="91"/>
+      <c r="A107" s="88"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
@@ -12827,7 +12814,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="91"/>
+      <c r="A108" s="88"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
@@ -12836,14 +12823,14 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="B109" s="84"/>
-      <c r="C109" s="84"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="90"/>
     </row>
     <row r="110" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="87" t="s">
+      <c r="A110" s="84" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -12854,7 +12841,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="89"/>
+      <c r="A111" s="86"/>
       <c r="B111" s="2" t="s">
         <v>120</v>
       </c>
@@ -12863,14 +12850,14 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="90" t="s">
+      <c r="A112" s="89" t="s">
         <v>187</v>
       </c>
-      <c r="B112" s="90"/>
-      <c r="C112" s="90"/>
+      <c r="B112" s="89"/>
+      <c r="C112" s="89"/>
     </row>
     <row r="113" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="84" t="s">
+      <c r="A113" s="90" t="s">
         <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -12881,7 +12868,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="84"/>
+      <c r="A114" s="90"/>
       <c r="B114" s="2" t="s">
         <v>77</v>
       </c>
@@ -12890,7 +12877,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="84"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="2" t="s">
         <v>78</v>
       </c>
@@ -12899,7 +12886,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="84"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="2" t="s">
         <v>79</v>
       </c>
@@ -12908,14 +12895,14 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="84" t="s">
+      <c r="A117" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="84"/>
-      <c r="C117" s="84"/>
+      <c r="B117" s="90"/>
+      <c r="C117" s="90"/>
     </row>
     <row r="118" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="87" t="s">
+      <c r="A118" s="84" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -12926,7 +12913,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="89"/>
+      <c r="A119" s="86"/>
       <c r="B119" s="2" t="s">
         <v>129</v>
       </c>
@@ -12935,14 +12922,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="84" t="s">
+      <c r="A120" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="B120" s="84"/>
-      <c r="C120" s="84"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="90"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="87" t="s">
+      <c r="A121" s="84" t="s">
         <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -12953,7 +12940,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="88"/>
+      <c r="A122" s="85"/>
       <c r="B122" s="2" t="s">
         <v>133</v>
       </c>
@@ -12962,7 +12949,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="88"/>
+      <c r="A123" s="85"/>
       <c r="B123" s="2" t="s">
         <v>134</v>
       </c>
@@ -12971,7 +12958,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="88"/>
+      <c r="A124" s="85"/>
       <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
@@ -12980,7 +12967,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="88"/>
+      <c r="A125" s="85"/>
       <c r="B125" s="2" t="s">
         <v>136</v>
       </c>
@@ -12989,7 +12976,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="88"/>
+      <c r="A126" s="85"/>
       <c r="B126" s="2" t="s">
         <v>137</v>
       </c>
@@ -12998,7 +12985,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="88"/>
+      <c r="A127" s="85"/>
       <c r="B127" s="2" t="s">
         <v>138</v>
       </c>
@@ -13007,7 +12994,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="88"/>
+      <c r="A128" s="85"/>
       <c r="B128" s="2" t="s">
         <v>139</v>
       </c>
@@ -13016,7 +13003,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="88"/>
+      <c r="A129" s="85"/>
       <c r="B129" s="2" t="s">
         <v>140</v>
       </c>
@@ -13025,7 +13012,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="88"/>
+      <c r="A130" s="85"/>
       <c r="B130" s="2" t="s">
         <v>141</v>
       </c>
@@ -13034,7 +13021,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="89"/>
+      <c r="A131" s="86"/>
       <c r="B131" s="2" t="s">
         <v>142</v>
       </c>
@@ -13043,21 +13030,21 @@
       </c>
     </row>
     <row r="133" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="85" t="s">
+      <c r="A133" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
+      <c r="B133" s="87"/>
+      <c r="C133" s="87"/>
     </row>
     <row r="134" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="84" t="s">
+      <c r="A134" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="B134" s="84"/>
-      <c r="C134" s="84"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="90"/>
     </row>
     <row r="135" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="91" t="s">
+      <c r="A135" s="88" t="s">
         <v>178</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -13068,7 +13055,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="91"/>
+      <c r="A136" s="88"/>
       <c r="B136" s="2" t="s">
         <v>177</v>
       </c>
@@ -13077,14 +13064,14 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="84" t="s">
+      <c r="A137" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="B137" s="84"/>
-      <c r="C137" s="84"/>
+      <c r="B137" s="90"/>
+      <c r="C137" s="90"/>
     </row>
     <row r="138" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="91" t="s">
+      <c r="A138" s="88" t="s">
         <v>179</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -13095,7 +13082,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="91"/>
+      <c r="A139" s="88"/>
       <c r="B139" s="2" t="s">
         <v>184</v>
       </c>
@@ -13104,14 +13091,14 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="90" t="s">
+      <c r="A140" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="B140" s="90"/>
-      <c r="C140" s="90"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="89"/>
     </row>
     <row r="141" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="91" t="s">
+      <c r="A141" s="88" t="s">
         <v>181</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -13122,7 +13109,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="91"/>
+      <c r="A142" s="88"/>
       <c r="B142" s="2" t="s">
         <v>177</v>
       </c>
@@ -13132,15 +13119,28 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A12:A24"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A63:A66"/>
     <mergeCell ref="A67:B67"/>
     <mergeCell ref="A120:C120"/>
@@ -13157,28 +13157,15 @@
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="A89:A95"/>
     <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:C137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
